--- a/Data/homeless population by Ethnecity.xlsx
+++ b/Data/homeless population by Ethnecity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1abe71445d0fcf/Documents/Data Scientist Program/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1abe71445d0fcf/Documents/GitHub/Homelessness-Final-Group-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3722D3D-4F6F-4FFD-8A17-66D42E07DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{F3722D3D-4F6F-4FFD-8A17-66D42E07DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7352F2C-6EDA-4334-BDC0-3C339F053590}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4AEF5EA3-EE38-41FC-B60E-98A1EFFD3CFC}"/>
   </bookViews>
@@ -37,13 +37,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">    By ethnicity</t>
+    <t>Years</t>
   </si>
   <si>
-    <t xml:space="preserve">        Non-Hispanic </t>
+    <t xml:space="preserve">Hispanic </t>
   </si>
   <si>
-    <t xml:space="preserve">        Hispanic </t>
+    <t xml:space="preserve">Non_Hispanic </t>
   </si>
 </sst>
 </file>
@@ -79,8 +79,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,83 +398,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7B551C-5611-4282-8722-690A18F1C605}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2015</v>
       </c>
-      <c r="C1">
+      <c r="B2" s="1">
+        <v>452140</v>
+      </c>
+      <c r="C2" s="1">
+        <v>112568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2016</v>
       </c>
-      <c r="D1">
+      <c r="B3" s="1">
+        <v>428629</v>
+      </c>
+      <c r="C3" s="1">
+        <v>121299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2017</v>
       </c>
-      <c r="E1">
+      <c r="B4" s="1">
+        <v>432634</v>
+      </c>
+      <c r="C4" s="1">
+        <v>118362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2018</v>
       </c>
-      <c r="F1">
+      <c r="B5" s="1">
+        <v>430354</v>
+      </c>
+      <c r="C5" s="1">
+        <v>122476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2019</v>
       </c>
-      <c r="G1">
+      <c r="B6" s="1">
+        <v>443100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>124615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>452140</v>
-      </c>
-      <c r="C2">
-        <v>428629</v>
-      </c>
-      <c r="D2">
-        <v>432634</v>
-      </c>
-      <c r="E2">
-        <v>430354</v>
-      </c>
-      <c r="F2">
-        <v>443100</v>
-      </c>
-      <c r="G2">
+      <c r="B7" s="1">
         <v>450107</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>112568</v>
-      </c>
-      <c r="C3">
-        <v>121299</v>
-      </c>
-      <c r="D3">
-        <v>118362</v>
-      </c>
-      <c r="E3">
-        <v>122476</v>
-      </c>
-      <c r="F3">
-        <v>124615</v>
-      </c>
-      <c r="G3">
+      <c r="C7" s="1">
         <v>130348</v>
       </c>
     </row>

--- a/Data/homeless population by Ethnecity.xlsx
+++ b/Data/homeless population by Ethnecity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1abe71445d0fcf/Documents/GitHub/Homelessness-Final-Group-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{F3722D3D-4F6F-4FFD-8A17-66D42E07DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7352F2C-6EDA-4334-BDC0-3C339F053590}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{F3722D3D-4F6F-4FFD-8A17-66D42E07DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64508406-5A68-4F15-B837-F72CC1349CDB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4AEF5EA3-EE38-41FC-B60E-98A1EFFD3CFC}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Hispanic </t>
   </si>
   <si>
-    <t xml:space="preserve">Non_Hispanic </t>
+    <t xml:space="preserve">None_Hispanic </t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/homeless population by Ethnecity.xlsx
+++ b/Data/homeless population by Ethnecity.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1abe71445d0fcf/Documents/GitHub/Homelessness-Final-Group-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{F3722D3D-4F6F-4FFD-8A17-66D42E07DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64508406-5A68-4F15-B837-F72CC1349CDB}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{F3722D3D-4F6F-4FFD-8A17-66D42E07DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5921270-0152-4100-93E2-12E115E12542}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4AEF5EA3-EE38-41FC-B60E-98A1EFFD3CFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4AEF5EA3-EE38-41FC-B60E-98A1EFFD3CFC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Years</t>
   </si>
@@ -44,6 +48,21 @@
   </si>
   <si>
     <t xml:space="preserve">None_Hispanic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of None_Hispanic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of Hispanic </t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -79,11 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,6 +120,3810 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>'None_Hispanic' by 'Years'</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29223600174978126"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>None_Hispanic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>452140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>428629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>432634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>430354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>443100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3865-4B2A-AD65-DBA9DA0DD228}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="435394735"/>
+        <c:axId val="435395983"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="435394735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435395983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435395983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>None_Hispanic</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435394735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>'None_Hispanic', 'Hispanic' by 'Years'</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.200000000000001E-2"/>
+          <c:y val="0.1804399970836979"/>
+          <c:w val="0.88822222222222225"/>
+          <c:h val="0.49984507144940216"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>None_Hispanic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>452140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>428629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>432634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>430354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>443100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B20-4AE9-A54D-72F21F2DB47A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Hispanic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>112568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118362</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5B20-4AE9-A54D-72F21F2DB47A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="13966239"/>
+        <c:axId val="13967903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="13966239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13967903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="13967903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="13966239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:srgbClr val="DD5A13"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Hispanic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> increases over time.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="ED7331"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="ED7331"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="ED7331"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7331"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="ED7331"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>2015</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2016</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2017</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2018</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2020</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>112568</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>121299</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>118362</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>122476</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>124615</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>130348</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDA3-4422-97D4-403DE7366174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="430887647"/>
+        <c:axId val="430888063"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="430887647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430888063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="430888063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hispanic</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430887647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Line. 'None_Hispanic' by 'Years'&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894467AC-623F-CD4E-1D32-F128C6FD242C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2" descr="Chart type: Line. 'None_Hispanic', 'Hispanic' by 'Years'&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4A0F88-F84B-BD37-ADCE-7360389B5D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4" descr="Chart type: Line. Hispanic increases over time.&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828C27B7-7E82-4453-93D5-4ECC6F4D4CE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hanyury Ascencio" refreshedDate="44698.879722106481" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="7" xr:uid="{940B05E6-0E74-4519-B004-90FD2D2B488F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Years" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2020" count="7">
+        <n v="2015"/>
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+        <n v="2020"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="None_Hispanic " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="428629" maxValue="452140"/>
+    </cacheField>
+    <cacheField name="Hispanic " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="112568" maxValue="130348"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+  <r>
+    <x v="0"/>
+    <n v="452140"/>
+    <n v="112568"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="428629"/>
+    <n v="121299"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="432634"/>
+    <n v="118362"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="430354"/>
+    <n v="122476"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="443100"/>
+    <n v="124615"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="450107"/>
+    <n v="130348"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19A931BB-8351-4260-857E-BBB778C67E72}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of None_Hispanic " fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Hispanic " fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,11 +4222,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748EF500-4A99-4165-9EDB-3E3FDB1AAEA4}">
+  <dimension ref="A3:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="2">
+        <v>452140</v>
+      </c>
+      <c r="C4" s="2">
+        <v>112568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="2">
+        <v>428629</v>
+      </c>
+      <c r="C5" s="2">
+        <v>121299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="2">
+        <v>432634</v>
+      </c>
+      <c r="C6" s="2">
+        <v>118362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="2">
+        <v>430354</v>
+      </c>
+      <c r="C7" s="2">
+        <v>122476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="2">
+        <v>443100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>124615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="2">
+        <v>450107</v>
+      </c>
+      <c r="C9" s="2">
+        <v>130348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2636964</v>
+      </c>
+      <c r="C11" s="2">
+        <v>729668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7B551C-5611-4282-8722-690A18F1C605}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,5 +4430,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/homeless population by Ethnecity.xlsx
+++ b/Data/homeless population by Ethnecity.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1abe71445d0fcf/Documents/GitHub/Homelessness-Final-Group-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{F3722D3D-4F6F-4FFD-8A17-66D42E07DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5921270-0152-4100-93E2-12E115E12542}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{F3722D3D-4F6F-4FFD-8A17-66D42E07DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B83A3A6C-A5C3-4049-8A05-B5E6FD52A0E2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4AEF5EA3-EE38-41FC-B60E-98A1EFFD3CFC}"/>
+    <workbookView minimized="1" xWindow="810" yWindow="1080" windowWidth="10080" windowHeight="14400" activeTab="2" xr2:uid="{4AEF5EA3-EE38-41FC-B60E-98A1EFFD3CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Years</t>
   </si>
@@ -1482,6 +1484,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="ED7331"/>
@@ -1944,6 +1949,532 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>'None_Hispanic', 'Hispanic' by 'Years'</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21056233595800525"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>None_Hispanic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>452140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>428629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>432634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>430354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>443100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-74A7-4817-B14C-B0B268927A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Hispanic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>112568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118362</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-74A7-4817-B14C-B0B268927A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="140"/>
+        <c:overlap val="-30"/>
+        <c:axId val="1033312959"/>
+        <c:axId val="1033310879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1033312959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1033310879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1033310879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1033312959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2064,6 +2595,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3311,6 +3882,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3776,6 +4850,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3" descr="Chart type: Clustered Column. 'None_Hispanic', 'Hispanic' by 'Years'&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD38AED-7B7C-E715-B356-62B799038AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3801,6 +4911,37 @@
     </cacheField>
     <cacheField name="Hispanic " numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="112568" maxValue="130348"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hanyury Ascencio" refreshedDate="44700.552836111114" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="6" xr:uid="{5EE884ED-BC46-4BBA-8839-935B98B16B6A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C7" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Years" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2015" maxValue="2020" count="6">
+        <n v="2015"/>
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+        <n v="2020"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="None_Hispanic " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="428629" maxValue="452140"/>
+    </cacheField>
+    <cacheField name="Hispanic " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="112568" maxValue="130348"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3851,8 +4992,43 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+  <r>
+    <x v="0"/>
+    <n v="452140"/>
+    <n v="112568"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="428629"/>
+    <n v="121299"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="432634"/>
+    <n v="118362"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="430354"/>
+    <n v="122476"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="443100"/>
+    <n v="124615"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="450107"/>
+    <n v="130348"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19A931BB-8351-4260-857E-BBB778C67E72}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19A931BB-8351-4260-857E-BBB778C67E72}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3894,6 +5070,77 @@
     </i>
     <i>
       <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of None_Hispanic " fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Hispanic " fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB36CAB2-18DC-4F56-974D-A852D1D3BC6A}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -4337,11 +5584,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB7A507-8D5A-4BAD-B837-AF047E7A1CAB}">
+  <dimension ref="A3:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="2">
+        <v>452140</v>
+      </c>
+      <c r="C4" s="2">
+        <v>112568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="2">
+        <v>428629</v>
+      </c>
+      <c r="C5" s="2">
+        <v>121299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="2">
+        <v>432634</v>
+      </c>
+      <c r="C6" s="2">
+        <v>118362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="2">
+        <v>430354</v>
+      </c>
+      <c r="C7" s="2">
+        <v>122476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="2">
+        <v>443100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>124615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="2">
+        <v>450107</v>
+      </c>
+      <c r="C9" s="2">
+        <v>130348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2636964</v>
+      </c>
+      <c r="C10" s="2">
+        <v>729668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7B551C-5611-4282-8722-690A18F1C605}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/homeless population by Ethnecity.xlsx
+++ b/Data/homeless population by Ethnecity.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="162" documentId="8_{F3722D3D-4F6F-4FFD-8A17-66D42E07DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B83A3A6C-A5C3-4049-8A05-B5E6FD52A0E2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="810" yWindow="1080" windowWidth="10080" windowHeight="14400" activeTab="2" xr2:uid="{4AEF5EA3-EE38-41FC-B60E-98A1EFFD3CFC}"/>
+    <workbookView minimized="1" xWindow="1155" yWindow="1425" windowWidth="10080" windowHeight="14400" activeTab="2" xr2:uid="{4AEF5EA3-EE38-41FC-B60E-98A1EFFD3CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="1" r:id="rId4"/>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5103,7 +5103,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB36CAB2-18DC-4F56-974D-A852D1D3BC6A}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB36CAB2-18DC-4F56-974D-A852D1D3BC6A}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
